--- a/results/jaccard_matches_plos_v3.xlsx
+++ b/results/jaccard_matches_plos_v3.xlsx
@@ -1,66 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/stats_section/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3BF22610F811E9883923449CF07F027BF488A2DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matches rank = 1 by topic" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Matches Most frequent" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Matches Most frequent no pvalue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Matches Top 10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Matches Top 10 no pvalue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Matches rank = 1 by topic" sheetId="1" r:id="rId1"/>
+    <sheet name="Matches Most frequent" sheetId="2" r:id="rId2"/>
+    <sheet name="Matches Most frequent no pvalue" sheetId="3" r:id="rId3"/>
+    <sheet name="Matches Top 10" sheetId="4" r:id="rId4"/>
+    <sheet name="Matches Top 10 no pvalue" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
-  <si>
-    <t xml:space="preserve">topic_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student t-test was used for statistical analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value of less-than 0.05 was considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distributions were skewed according to the shapiro-wilk test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chi-square tests were used to compare categorical variables between the two groups and the mann-whitney test was used for continuous variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spearman rank order correlations were applied to measure associations between two continuous variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graphpad prism graphpad software san diego ca was used for all analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">significant differences were determined using analysis-of-variance anova followed by tukey post-hoc tests for multiple comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spss software version 17.0 spss chicago il usa was used for statistical analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all results are expressed as means plus-or-minus standard deviation plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heterogeneity across studies was tested by using the i2 statistic which was a quantitative measure of inconsistency across studies</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
+  <si>
+    <t>topic_num</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>student t-test was used for statistical analysis</t>
+  </si>
+  <si>
+    <t>a p-value of less-than 0.05 was considered statistically significant</t>
+  </si>
+  <si>
+    <t>distributions were skewed according to the shapiro-wilk test</t>
+  </si>
+  <si>
+    <t>chi-square tests were used to compare categorical variables between the two groups and the mann-whitney test was used for continuous variables</t>
+  </si>
+  <si>
+    <t>spearman rank order correlations were applied to measure associations between two continuous variables</t>
+  </si>
+  <si>
+    <t>graphpad prism graphpad software san diego ca was used for all analyses</t>
+  </si>
+  <si>
+    <t>significant differences were determined using analysis-of-variance anova followed by tukey post-hoc tests for multiple comparisons</t>
+  </si>
+  <si>
+    <t>spss software version 17.0 spss chicago il usa was used for statistical analysis</t>
+  </si>
+  <si>
+    <t>all results are expressed as means plus-or-minus standard deviation plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>heterogeneity across studies was tested by using the i2 statistic which was a quantitative measure of inconsistency across studies</t>
   </si>
   <si>
     <t xml:space="preserve">studies with an i2 statistic of 25 percent to 50 percent were considered to have low heterogeneity those with an i2 statistic of 50 percent to 75 percent were considered to have moderate heterogeneity and those with an i2 statistic of greater-than 75 percent were considered to have a high degree of heterogeneity </t>
@@ -72,220 +80,220 @@
     <t xml:space="preserve">a fixed-effects model was used i2 equal-to 50 percent and a random-effects model was used in the case of significant heterogeneity i2 greater-than 50 percent </t>
   </si>
   <si>
-    <t xml:space="preserve">we also investigated the influence of a single study on the overall risk estimate by omitting one study in each turn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical significance was determined by student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 p equal-to less-than 0.01 p less-than 0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed using microsoft excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">significance was assessed by the student t-test using data from at least three independent experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all images are representative of at least three independent experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value less-than 0.05 was considered to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value less-than 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 was considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value less-than 0.05 was considered a significant difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value of less-than 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value less-than 0.05 was considered statistically significant</t>
+    <t>we also investigated the influence of a single study on the overall risk estimate by omitting one study in each turn</t>
+  </si>
+  <si>
+    <t>statistical significance was determined by student t-test</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 p equal-to less-than 0.01 p less-than 0.001</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed using microsoft excel</t>
+  </si>
+  <si>
+    <t>significance was assessed by the student t-test using data from at least three independent experiments</t>
+  </si>
+  <si>
+    <t>all images are representative of at least three independent experiments</t>
+  </si>
+  <si>
+    <t>a p-value less-than 0.05 was considered to be statistically significant</t>
+  </si>
+  <si>
+    <t>a p-value less-than 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 was considered statistically significant</t>
+  </si>
+  <si>
+    <t>a p-value less-than 0.05 was considered a significant difference</t>
+  </si>
+  <si>
+    <t>a p-value of less-than 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>a p-value less-than 0.05 was considered statistically significant</t>
   </si>
   <si>
     <t xml:space="preserve">data were analysed using r version 2.15.2 </t>
   </si>
   <si>
-    <t xml:space="preserve">significance was set at p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analysis was performed using student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed using sas version 9.4 sas institute cary nc usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as the mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data are presented as mean plus-or-minus standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as mean plus-or-minus sem</t>
+    <t>significance was set at p less-than 0.05</t>
+  </si>
+  <si>
+    <t>statistical analysis was performed using student t-test</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed using sas version 9.4 sas institute cary nc usa</t>
+  </si>
+  <si>
+    <t>data are expressed as mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data are presented as the mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>all data are presented as mean plus-or-minus standard deviation</t>
+  </si>
+  <si>
+    <t>data are presented as mean plus-or-minus sem</t>
   </si>
   <si>
     <t xml:space="preserve">otherwise the fixed-effects model was used </t>
   </si>
   <si>
-    <t xml:space="preserve">all data are presented as mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all the experiments were repeated at least three times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value less-than 0.05 were considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value equal-to 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we considered p-value less-than 0.05 to be significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences were considered significant when the p-value was less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value equal-to 0.05 were considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences in p-value equal-to 0.05 were considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses were performed using a student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical significance was determined using student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical significance was set at p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value were two-tailed p less-than 0.05 was considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all tests were two-sided and a p-value less-than 0.05 was considered statistical significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armonk ny usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all tests were two-tailed and p-value less-than 0.05 were considered as significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we considered p less-than 0.05 to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value less-than 0.05 were considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences of p less-than 0.05 were considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data are presented as the mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values were considered statistically significant at p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed using graphpad prism graphpad software inc san diego ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are shown as means plus-or-minus standard error of the mean sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a p-value of less-than 0.05 was considered to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a level of p less-than 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of less-than 0.05 were considered to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value was considered significant when p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences were considered significant at p-value less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all results are expressed as the mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as the mean plus-or-minus standard error of the mean sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as mean plus-or-minus se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value less-than 0.05 was considered as statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 was considered to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistically significant differences were considered when p-value less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data were expressed as mean plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the level of significance was set at p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical significance was defined as p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value of less-than 0.05 were considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as mean plus-or-minus standard error of the mean sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figures are presented as mean plus-or-minus standard error of the mean sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data are expressed as mean values plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data were expressed as mean plus-or-minus standard error of the mean mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as mean plus-or-minus sd or sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences with p less-than 0.05 were considered statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the significance of the pooled or was determined by the z-test and p less-than 0.05 was considered as statistically significant</t>
+    <t>all data are presented as mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>all the experiments were repeated at least three times</t>
+  </si>
+  <si>
+    <t>p-value less-than 0.05 were considered statistically significant</t>
+  </si>
+  <si>
+    <t>a p-value equal-to 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>we considered p-value less-than 0.05 to be significant</t>
+  </si>
+  <si>
+    <t>differences were considered significant when the p-value was less-than 0.05</t>
+  </si>
+  <si>
+    <t>p-value equal-to 0.05 were considered significant</t>
+  </si>
+  <si>
+    <t>differences in p-value equal-to 0.05 were considered statistically significant</t>
+  </si>
+  <si>
+    <t>statistical analyses were performed using a student t-test</t>
+  </si>
+  <si>
+    <t>statistical significance was determined using student t-test</t>
+  </si>
+  <si>
+    <t>statistical significance was set at p less-than 0.05</t>
+  </si>
+  <si>
+    <t>p-value were two-tailed p less-than 0.05 was considered statistically significant</t>
+  </si>
+  <si>
+    <t>all tests were two-sided and a p-value less-than 0.05 was considered statistical significant</t>
+  </si>
+  <si>
+    <t>armonk ny usa</t>
+  </si>
+  <si>
+    <t>all tests were two-tailed and p-value less-than 0.05 were considered as significant</t>
+  </si>
+  <si>
+    <t>we considered p less-than 0.05 to be statistically significant</t>
+  </si>
+  <si>
+    <t>p-value less-than 0.05 were considered significant</t>
+  </si>
+  <si>
+    <t>differences of p less-than 0.05 were considered significant</t>
+  </si>
+  <si>
+    <t>all data are presented as the mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>values were considered statistically significant at p less-than 0.05</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed using graphpad prism graphpad software inc san diego ca</t>
+  </si>
+  <si>
+    <t>data are shown as means plus-or-minus standard error of the mean sem</t>
+  </si>
+  <si>
+    <t>a p-value of less-than 0.05 was considered to be statistically significant</t>
+  </si>
+  <si>
+    <t>a level of p less-than 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>p-value of less-than 0.05 were considered to be statistically significant</t>
+  </si>
+  <si>
+    <t>p-value was considered significant when p less-than 0.05</t>
+  </si>
+  <si>
+    <t>differences were considered significant at p-value less-than 0.05</t>
+  </si>
+  <si>
+    <t>all results are expressed as the mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data are presented as the mean plus-or-minus standard error of the mean sem</t>
+  </si>
+  <si>
+    <t>data are expressed as mean plus-or-minus se</t>
+  </si>
+  <si>
+    <t>p-value less-than 0.05 was considered as statistically significant</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 was considered to be statistically significant</t>
+  </si>
+  <si>
+    <t>statistically significant differences were considered when p-value less-than 0.05</t>
+  </si>
+  <si>
+    <t>data were expressed as mean plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>the level of significance was set at p less-than 0.05</t>
+  </si>
+  <si>
+    <t>statistical significance was defined as p less-than 0.05</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>p-value of less-than 0.05 were considered statistically significant</t>
+  </si>
+  <si>
+    <t>data are expressed as mean plus-or-minus standard error of the mean sem</t>
+  </si>
+  <si>
+    <t>figures are presented as mean plus-or-minus standard error of the mean sem</t>
+  </si>
+  <si>
+    <t>all data are expressed as mean values plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>data were expressed as mean plus-or-minus standard error of the mean mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data are expressed as mean plus-or-minus sd or sem</t>
+  </si>
+  <si>
+    <t>differences with p less-than 0.05 were considered statistically significant</t>
+  </si>
+  <si>
+    <t>the significance of the pooled or was determined by the z-test and p less-than 0.05 was considered as statistically significant</t>
   </si>
   <si>
     <t xml:space="preserve">otherwise the random-effects model the dersimonian and laird method was used </t>
   </si>
   <si>
-    <t xml:space="preserve">otherwise the fixed effects model mantel-haenszel method was used</t>
+    <t>otherwise the fixed effects model mantel-haenszel method was used</t>
   </si>
   <si>
     <t xml:space="preserve">otherwise the random-effect model was used </t>
   </si>
   <si>
-    <t xml:space="preserve">the significance of the pooled ors was determined by the z-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heterogeneity was assessed using the i2 statistic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control</t>
+    <t>the significance of the pooled ors was determined by the z-test</t>
+  </si>
+  <si>
+    <t>heterogeneity was assessed using the i2 statistic</t>
+  </si>
+  <si>
+    <t>control</t>
   </si>
   <si>
     <t xml:space="preserve">all analyses were conducted in r using the lme4 package </t>
@@ -297,216 +305,215 @@
     <t xml:space="preserve">we performed statistical analyses in r 3.2.3 </t>
   </si>
   <si>
-    <t xml:space="preserve">models with daic values less-than 2 were considered to have the most support</t>
+    <t>models with daic values less-than 2 were considered to have the most support</t>
   </si>
   <si>
     <t xml:space="preserve">hierarchical clustering was performed using the cluster and treeview software programs </t>
   </si>
   <si>
-    <t xml:space="preserve">the acquisition timing of each slice was corrected using the middle slice as a reference for the echo-planar imaging data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all normalized functional images were then smoothed by using an isotropic gaussian kernel of 9 mm full-width at half maximum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses and model fitting were conducted using the statistical package genstat 7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a value of p less-than 0.05 was considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 was considered to be significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as the mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are given as means plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data were expressed as mean plus-or-minus s.e.m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are represented as mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p less-than 0.05 was considered a statistically significant difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a value of p less-than 0.05 was considered to be statistically significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all experiments were performed at least three times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values of p less-than 0.05 were considered significant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">each experiment was repeated at least three times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">differences were considered to be statistically significant at p less-than 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">significance was determined by a two-tailed student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data were analysed using the student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analysis was performed using two-tailed unpaired student t-test between-group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical significance of the data was determined by student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data were analysed using an unpaired two-tailed student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses were performed using an unpaired two-tailed student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical variables were compared using chi-square test or fisher exact test as appropriate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuous variables were expressed as mean plus-or-minus standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survival curves were estimated by the kaplan-meier method and compared by log-rank test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical variables are presented as frequencies and percentages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed with sas software version 9.2 sas institute inc cary nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses were performed using sas software version 9.2 sas institute cary nc usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">continuous variables are presented as mean plus-or-minus standard deviation sd and categorical variables are presented as percentages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categorical variables were compared using the chi-square test or fisher exact tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results are expressed as mean plus-or-minus standard error of the mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed using graphpad prism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analysis was performed using graphpad prism software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analysis was performed by using graphpad prism software graphpad san diego ca usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results are presented as mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses were performed using the graphpad prism 5 software graphpad software inc la jolla ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as mean plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as means plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the data are expressed as the mean plus-or-minus s.e.m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the data were expressed as mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data were presented as mean plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as the mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analysis was performed using spss 16.0 spss inc chicago il usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all statistical analyses were performed using spss version 13.0 spss inc chicago il</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data are expressed as means plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are expressed as the mean plus-or-minus standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analyses were performed using the spss software package spss 12.0 spss inc chicago il usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all data are presented as means plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results were expressed as the mean plus-or-minus standard deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values are expressed as the mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results are reported as mean plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantitative data were expressed as the mean plus-or-minus standard deviation sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">college station texas usa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherwise a random-effects model was applied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i2 values of 25 percent 50 percent and 75 percent were considered as low moderate and high heterogeneity respectively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copenhagen the nordic cochrane centre the cochrane collaboration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all results are presented as the mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as the means plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values are presented as mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are shown as the mean plus-or-minus sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data from experiments are expressed as mean plus-or-minus sd of at least three independent experiments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all experiments were performed in triplicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data are presented as means plus-or-minus sem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the data shown are presented as the mean plus-or-minus s.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">statistical analysis was performed by student t-test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">results are expressed as means plus-or-minus sem of at least three independent experiments</t>
+    <t>the acquisition timing of each slice was corrected using the middle slice as a reference for the echo-planar imaging data</t>
+  </si>
+  <si>
+    <t>all normalized functional images were then smoothed by using an isotropic gaussian kernel of 9 mm full-width at half maximum</t>
+  </si>
+  <si>
+    <t>statistical analyses and model fitting were conducted using the statistical package genstat 7.1</t>
+  </si>
+  <si>
+    <t>a value of p less-than 0.05 was considered significant</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 was considered to be significant</t>
+  </si>
+  <si>
+    <t>data are expressed as the mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data are given as means plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data were expressed as mean plus-or-minus s.e.m</t>
+  </si>
+  <si>
+    <t>data are represented as mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>p less-than 0.05 was considered a statistically significant difference</t>
+  </si>
+  <si>
+    <t>data are presented as mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>a value of p less-than 0.05 was considered to be statistically significant</t>
+  </si>
+  <si>
+    <t>all experiments were performed at least three times</t>
+  </si>
+  <si>
+    <t>values of p less-than 0.05 were considered significant</t>
+  </si>
+  <si>
+    <t>each experiment was repeated at least three times</t>
+  </si>
+  <si>
+    <t>differences were considered to be statistically significant at p less-than 0.05</t>
+  </si>
+  <si>
+    <t>significance was determined by a two-tailed student t-test</t>
+  </si>
+  <si>
+    <t>data were analysed using the student t-test</t>
+  </si>
+  <si>
+    <t>statistical analysis was performed using two-tailed unpaired student t-test between-group</t>
+  </si>
+  <si>
+    <t>statistical significance of the data was determined by student t-test</t>
+  </si>
+  <si>
+    <t>data were analysed using an unpaired two-tailed student t-test</t>
+  </si>
+  <si>
+    <t>statistical analyses were performed using an unpaired two-tailed student t-test</t>
+  </si>
+  <si>
+    <t>categorical variables were compared using chi-square test or fisher exact test as appropriate</t>
+  </si>
+  <si>
+    <t>continuous variables were expressed as mean plus-or-minus standard deviation</t>
+  </si>
+  <si>
+    <t>survival curves were estimated by the kaplan-meier method and compared by log-rank test</t>
+  </si>
+  <si>
+    <t>categorical variables are presented as frequencies and percentages</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed with sas software version 9.2 sas institute inc cary nc</t>
+  </si>
+  <si>
+    <t>statistical analyses were performed using sas software version 9.2 sas institute cary nc usa</t>
+  </si>
+  <si>
+    <t>continuous variables are presented as mean plus-or-minus standard deviation sd and categorical variables are presented as percentages</t>
+  </si>
+  <si>
+    <t>categorical variables were compared using the chi-square test or fisher exact tests</t>
+  </si>
+  <si>
+    <t>results are expressed as mean plus-or-minus standard error of the mean</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed using graphpad prism</t>
+  </si>
+  <si>
+    <t>all statistical analysis was performed using graphpad prism software</t>
+  </si>
+  <si>
+    <t>statistical analysis was performed by using graphpad prism software graphpad san diego ca usa</t>
+  </si>
+  <si>
+    <t>results are presented as mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>statistical analyses were performed using the graphpad prism 5 software graphpad software inc la jolla ca</t>
+  </si>
+  <si>
+    <t>data are presented as mean plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>data are expressed as means plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>the data are expressed as the mean plus-or-minus s.e.m</t>
+  </si>
+  <si>
+    <t>the data were expressed as mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>all data were presented as mean plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>data are presented as the mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>statistical analysis was performed using spss 16.0 spss inc chicago il usa</t>
+  </si>
+  <si>
+    <t>all statistical analyses were performed using spss version 13.0 spss inc chicago il</t>
+  </si>
+  <si>
+    <t>all data are expressed as means plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>data are expressed as the mean plus-or-minus standard deviation</t>
+  </si>
+  <si>
+    <t>statistical analyses were performed using the spss software package spss 12.0 spss inc chicago il usa</t>
+  </si>
+  <si>
+    <t>all data are presented as means plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>results were expressed as the mean plus-or-minus standard deviation</t>
+  </si>
+  <si>
+    <t>values are expressed as the mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>results are reported as mean plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>quantitative data were expressed as the mean plus-or-minus standard deviation sd</t>
+  </si>
+  <si>
+    <t>college station texas usa</t>
+  </si>
+  <si>
+    <t>otherwise a random-effects model was applied</t>
+  </si>
+  <si>
+    <t>i2 values of 25 percent 50 percent and 75 percent were considered as low moderate and high heterogeneity respectively</t>
+  </si>
+  <si>
+    <t>copenhagen the nordic cochrane centre the cochrane collaboration</t>
+  </si>
+  <si>
+    <t>all results are presented as the mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>data are presented as the means plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>values are presented as mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>data are shown as the mean plus-or-minus sd</t>
+  </si>
+  <si>
+    <t>data from experiments are expressed as mean plus-or-minus sd of at least three independent experiments</t>
+  </si>
+  <si>
+    <t>all experiments were performed in triplicate</t>
+  </si>
+  <si>
+    <t>data are presented as means plus-or-minus sem</t>
+  </si>
+  <si>
+    <t>the data shown are presented as the mean plus-or-minus s.d</t>
+  </si>
+  <si>
+    <t>statistical analysis was performed by student t-test</t>
+  </si>
+  <si>
+    <t>results are expressed as means plus-or-minus sem of at least three independent experiments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -542,74 +549,83 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="topic_num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="row"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sentence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="rank"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="matches"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="topic_num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="row"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="sentence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="rank"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="matches"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E20" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="topic_num"/>
-    <tableColumn id="2" name="row"/>
-    <tableColumn id="3" name="sentence"/>
-    <tableColumn id="4" name="rank"/>
-    <tableColumn id="5" name="matches"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="topic_num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="row"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sentence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="rank"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="matches"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:E11" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table6" displayName="Table6" ref="A1:E101" totalsRowShown="0">
+  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="topic_num"/>
-    <tableColumn id="2" name="row"/>
-    <tableColumn id="3" name="sentence"/>
-    <tableColumn id="4" name="rank"/>
-    <tableColumn id="5" name="matches"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="topic_num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="row"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="sentence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="rank"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="matches"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:E11" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:E101" totalsRowShown="0">
+  <autoFilter ref="A1:E101" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="topic_num"/>
-    <tableColumn id="2" name="row"/>
-    <tableColumn id="3" name="sentence"/>
-    <tableColumn id="4" name="rank"/>
-    <tableColumn id="5" name="matches"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E101"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="topic_num"/>
-    <tableColumn id="2" name="row"/>
-    <tableColumn id="3" name="sentence"/>
-    <tableColumn id="4" name="rank"/>
-    <tableColumn id="5" name="matches"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:E101" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E101"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="topic_num"/>
-    <tableColumn id="2" name="row"/>
-    <tableColumn id="3" name="sentence"/>
-    <tableColumn id="4" name="rank"/>
-    <tableColumn id="5" name="matches"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="topic_num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="row"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="sentence"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="rank"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="matches"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -893,23 +909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="1">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="70.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,356 +941,355 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>664</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>19</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>17</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>93</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="70.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,203 +1306,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>664</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1138</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>914</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>580</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>739</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
         <v>519</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>305</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>53</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>195</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>397</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="70.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1505,203 +1518,202 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>53</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>140</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>43</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>350</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>359</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>47</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>149</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>223</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>29</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>53</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>20</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>115</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="70.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1718,1733 +1730,1732 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>664</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>407</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>53</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>97</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>41</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>45</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>32</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>75</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>29</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>65</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>44</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1138</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>832</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>19</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>347</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>57</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>290</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>22</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>194</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>181</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>140</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>63</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>137</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>131</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
         <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>102</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>914</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>67</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>501</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>43</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>350</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>64</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>335</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>38</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>266</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>67</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>172</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>71</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>164</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
         <v>129</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>65</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>113</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>81</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>110</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>580</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>386</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>8</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>359</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
       </c>
-      <c r="D35" t="n">
-        <v>4</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
         <v>336</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>7</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>289</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>259</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>242</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>41</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>194</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>67</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>46</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>176</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>14</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>170</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
         <v>739</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>7</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>437</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>3</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>26</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>409</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>43</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>227</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>17</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>213</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>27</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>158</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>47</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>149</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>72</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>52</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>142</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>5</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>24</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>134</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>35</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="D52" t="n">
-        <v>3</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
         <v>519</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>336</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>14</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>305</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>20</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>223</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>6</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>215</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>78</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>120</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>79</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>32</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>120</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>80</v>
       </c>
-      <c r="D59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
         <v>115</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>49</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>106</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>6</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
         <v>82</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>18</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>93</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>16</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>305</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>41</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>61</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>103</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>20</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>57</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>29</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>45</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>7</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>8</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>40</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>7</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>25</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>24</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>7</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>100</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>23</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>7</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>86</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>32</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>20</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>7</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>32</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>20</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>7</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>88</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>51</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>19</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>53</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>10</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>89</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>36</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>8</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
         <v>90</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>12</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>8</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>8</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>91</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>62</v>
       </c>
-      <c r="E75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>8</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>92</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="E76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>8</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>20</v>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>8</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>94</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>23</v>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>8</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>30</v>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>96</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>30</v>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>8</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
         <v>97</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>50</v>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>9</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>31</v>
       </c>
-      <c r="D82" t="n">
-        <v>4</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
         <v>195</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>9</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>33</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>131</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>9</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>2</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>10</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>118</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>9</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>20</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>115</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>9</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
         <v>93</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>52</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>70</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>9</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>55</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>62</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>51</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>9</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>101</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>10</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>39</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>9</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>102</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>74</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>39</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" t="s">
         <v>103</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>43</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>38</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>10</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>3</v>
       </c>
       <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="D92" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
         <v>397</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>10</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>3</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>82</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>183</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>10</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
         <v>104</v>
       </c>
-      <c r="D94" t="n">
-        <v>4</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
         <v>170</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>10</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
       </c>
-      <c r="D95" t="n">
-        <v>4</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
         <v>119</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>10</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>105</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>8</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>82</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>10</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>3</v>
       </c>
       <c r="C97" t="s">
         <v>106</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>87</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>82</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>10</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>107</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>30</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>81</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>10</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>108</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>65</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>78</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>10</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>3</v>
       </c>
       <c r="C100" t="s">
         <v>109</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>12</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>69</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>10</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>110</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>12</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="70.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3461,1711 +3472,1711 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>53</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>44</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>33</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>112</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>46</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>23</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>140</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>63</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>137</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>77</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>57</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>70</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>77</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>66</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>43</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>64</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>59</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>61</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>60</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>59</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>90</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>46</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>124</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>52</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>43</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>350</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>67</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>172</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
         <v>129</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>65</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>113</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>39</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>99</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>31</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>81</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>26</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>78</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>129</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>58</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>30</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>71</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>359</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>41</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>194</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>46</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>176</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>170</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4</v>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>153</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>4</v>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>49</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>130</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>15</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>85</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>4</v>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>55</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>82</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4</v>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>135</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>18</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>75</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>4</v>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>72</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>89</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>74</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>47</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>149</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>52</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>142</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>136</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>61</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>102</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>87</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>98</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="D46" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
         <v>86</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>30</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>72</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>53</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>54</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>5</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>140</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>62</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>52</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>5</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>141</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>23</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>45</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>27</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>42</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>20</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>223</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>6</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>215</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>120</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>32</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>120</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>6</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
       </c>
-      <c r="D56" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
         <v>115</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>49</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>106</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>143</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>35</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>91</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>144</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>55</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>54</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>145</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>53</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>6</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
         <v>146</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>57</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>49</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>38</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>29</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>45</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>8</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>40</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>24</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>86</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>32</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>20</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>7</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>32</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>20</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>7</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
         <v>88</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>51</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>19</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>7</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>147</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>76</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>18</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>7</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>69</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>17</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>7</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>149</v>
       </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
         <v>16</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>7</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>150</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>81</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>16</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>53</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>10</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>89</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>36</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>8</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>2</v>
       </c>
       <c r="C74" t="s">
         <v>90</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>12</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>8</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>8</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>91</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>62</v>
       </c>
-      <c r="E75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>8</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
         <v>92</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="E76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>8</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>20</v>
       </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>8</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>94</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>23</v>
       </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>8</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>2</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>30</v>
       </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>96</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>30</v>
       </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>8</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>2</v>
       </c>
       <c r="C81" t="s">
         <v>97</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>50</v>
       </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>9</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>1</v>
       </c>
       <c r="C82" t="s">
         <v>39</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>20</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>115</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>9</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>1</v>
       </c>
       <c r="C83" t="s">
         <v>100</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>52</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>70</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>9</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>3</v>
       </c>
       <c r="C84" t="s">
         <v>101</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>10</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>39</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>9</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>102</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>74</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>39</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>9</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
         <v>103</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>43</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>38</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>151</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>63</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>32</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>9</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>29</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>9</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
         <v>152</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>29</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>29</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>9</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>153</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>13</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>28</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
         <v>154</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>49</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>26</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>10</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" t="s">
         <v>40</v>
       </c>
-      <c r="D92" t="n">
-        <v>4</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
         <v>119</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>10</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>105</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>8</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>82</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>10</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>30</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>81</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>10</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
         <v>109</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>12</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>69</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>10</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>155</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>13</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>48</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>10</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>156</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>45</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>36</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>10</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" t="s">
         <v>157</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>22</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>34</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>10</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" t="s">
         <v>158</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>32</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>31</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>10</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>159</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>17</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>30</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>10</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
         <v>160</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>26</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>